--- a/AVReality/Data_new.xlsx
+++ b/AVReality/Data_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilydoherty/Desktop/IRES/Emotion Datasets/AVReality/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilydoherty/IRES-EmotionNN/AVReality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851651BF-1465-404A-9CE4-DE36E2879F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C42BA72-76D8-2845-8339-967591A6E7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31900" yWindow="1260" windowWidth="31900" windowHeight="17300" tabRatio="648" activeTab="1" xr2:uid="{CCDBB2B6-1B16-4FD8-BE26-D709686E11D5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" tabRatio="648" activeTab="1" xr2:uid="{CCDBB2B6-1B16-4FD8-BE26-D709686E11D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcomes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="112">
   <si>
     <t>No.</t>
   </si>
@@ -287,6 +287,93 @@
   </si>
   <si>
     <t>S_Trustworthy</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -4606,8 +4693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1163316-865D-3C43-87D7-38B0F26B96AE}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4624,7 +4711,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>25</v>
@@ -4691,8 +4778,8 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="3">
         <v>22</v>
@@ -4759,8 +4846,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B3" s="3">
         <v>22</v>
@@ -4827,8 +4914,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B4" s="3">
         <v>19</v>
@@ -4895,8 +4982,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B5" s="3">
         <v>27</v>
@@ -4963,8 +5050,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B6" s="3">
         <v>20</v>
@@ -5031,8 +5118,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="3">
         <v>20</v>
@@ -5099,8 +5186,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B8" s="3">
         <v>20</v>
@@ -5167,8 +5254,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B9" s="3">
         <v>22</v>
@@ -5235,8 +5322,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B10" s="3">
         <v>23</v>
@@ -5303,8 +5390,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B11" s="3">
         <v>22</v>
@@ -5371,8 +5458,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B12" s="3">
         <v>24</v>
@@ -5439,8 +5526,8 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="B13" s="3">
         <v>20</v>
@@ -5507,8 +5594,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B14" s="3">
         <v>20</v>
@@ -5575,8 +5662,8 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B15" s="3">
         <v>20</v>
@@ -5643,8 +5730,8 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B16" s="3">
         <v>20</v>
@@ -5711,8 +5798,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B17" s="3">
         <v>21</v>
@@ -5779,8 +5866,8 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B18" s="3">
         <v>19</v>
@@ -5847,8 +5934,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B19" s="3">
         <v>23</v>
@@ -5915,8 +6002,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B20" s="3">
         <v>21</v>
@@ -5983,8 +6070,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B21" s="3">
         <v>22</v>
@@ -6051,8 +6138,8 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B22" s="3">
         <v>20</v>
@@ -6119,8 +6206,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B23" s="3">
         <v>21</v>
@@ -6187,8 +6274,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B24" s="3">
         <v>22</v>
@@ -6255,8 +6342,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B25" s="3">
         <v>19</v>
@@ -6323,8 +6410,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>26</v>
+      <c r="A26" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B26" s="3">
         <v>25</v>
@@ -6391,8 +6478,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>27</v>
+      <c r="A27" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B27" s="3">
         <v>20</v>
@@ -6459,8 +6546,8 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>28</v>
+      <c r="A28" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B28" s="3">
         <v>25</v>
@@ -6527,8 +6614,8 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>29</v>
+      <c r="A29" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B29" s="3">
         <v>33</v>
